--- a/Combined_Spare_Part_List.xlsx
+++ b/Combined_Spare_Part_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://idsmedshare-my.sharepoint.com/personal/akmaludinagustian_idsmed_com/Documents/IDS2019/Download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="11_D19E7DDE9309A8ED6C170BFE83DDCCBF512BFB57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D8848CF-DC61-4D09-8D15-7F89CD9C6885}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="11_D19E7DDE9309A8ED6C170BFE83DDCCBF512BFB57" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48716509-C1C4-4DB0-9540-E9740641D5A8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4897" uniqueCount="2686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4897" uniqueCount="2687">
   <si>
     <t>1. HANDPIECE</t>
   </si>
@@ -8094,6 +8094,9 @@
   </si>
   <si>
     <t>FLASH LAMP, FLASHLAMP, FLASH LAMP</t>
+  </si>
+  <si>
+    <t>Price (After TAX)</t>
   </si>
 </sst>
 </file>
@@ -8500,7 +8503,7 @@
   <dimension ref="A1:F1597"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1599" sqref="D1599"/>
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8523,8 +8526,8 @@
       <c r="C1" s="3" t="s">
         <v>2682</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>1464</v>
+      <c r="D1" s="3" t="s">
+        <v>2686</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2681</v>
@@ -21839,7 +21842,7 @@
         <v>6237700</v>
       </c>
       <c r="D644" s="7">
-        <f t="shared" ref="D644:D707" si="10">C644+(11%*C644)</f>
+        <f t="shared" ref="D644:D693" si="10">C644+(11%*C644)</f>
         <v>6923847</v>
       </c>
       <c r="E644" s="6" t="s">
@@ -30697,7 +30700,7 @@
         <v>6073550</v>
       </c>
       <c r="D1067" s="7">
-        <f t="shared" ref="D1067:D1130" si="19">C1067+(11%*C1067)</f>
+        <f t="shared" ref="D1067:D1111" si="19">C1067+(11%*C1067)</f>
         <v>6741640.5</v>
       </c>
       <c r="E1067" s="6" t="s">
@@ -41320,7 +41323,7 @@
         <v>8699950</v>
       </c>
       <c r="D1579" s="7">
-        <f t="shared" ref="D1579:D1597" si="27">C1579+(11%*C1579)</f>
+        <f t="shared" ref="D1579:D1589" si="27">C1579+(11%*C1579)</f>
         <v>9656944.5</v>
       </c>
       <c r="E1579" s="6" t="s">

--- a/Combined_Spare_Part_List.xlsx
+++ b/Combined_Spare_Part_List.xlsx
@@ -8503,7 +8503,7 @@
   <dimension ref="A1:F1597"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Combined_Spare_Part_List.xlsx
+++ b/Combined_Spare_Part_List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AkmaludinAgustian.HERMES\OneDrive - idsMED\IDS2019\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB364516-5936-45F6-BC00-869113ED6388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6122456-E0BC-4041-8C64-D35DAAF18A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8005" uniqueCount="3205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8005" uniqueCount="3207">
   <si>
     <t>1. HANDPIECE</t>
   </si>
@@ -9651,6 +9651,12 @@
   </si>
   <si>
     <t>Rp. 110.781.552</t>
+  </si>
+  <si>
+    <t>Rp. 37.097.900</t>
+  </si>
+  <si>
+    <t>Rp. 41.178.669</t>
   </si>
 </sst>
 </file>
@@ -10063,8 +10069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1612"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D188" sqref="D188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -14760,16 +14766,16 @@
         <v>3184</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>2867</v>
+        <v>3205</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>3022</v>
+        <v>3206</v>
       </c>
       <c r="E187" s="9">
-        <v>38082800</v>
+        <v>37097900</v>
       </c>
       <c r="F187" s="9">
-        <v>42271908</v>
+        <v>41178669</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>3189</v>
